--- a/curso-excel/Plan churras.xlsx
+++ b/curso-excel/Plan churras.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,32 +243,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -279,16 +259,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -580,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,40 +627,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
@@ -703,15 +673,15 @@
         <f>C4*D4</f>
         <v>307.60000000000002</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
@@ -724,15 +694,15 @@
         <f t="shared" ref="E5:E17" si="0">C5*D5</f>
         <v>63.6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
@@ -745,15 +715,15 @@
         <f t="shared" si="0"/>
         <v>183.6</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
@@ -766,15 +736,15 @@
         <f t="shared" si="0"/>
         <v>65.699999999999989</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
@@ -787,15 +757,15 @@
         <f t="shared" si="0"/>
         <v>53.400000000000006</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
@@ -808,15 +778,15 @@
         <f t="shared" si="0"/>
         <v>566.40000000000009</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2">
@@ -829,15 +799,15 @@
         <f t="shared" si="0"/>
         <v>59.400000000000006</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2">
@@ -850,15 +820,15 @@
         <f t="shared" si="0"/>
         <v>40.9</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2">
@@ -871,15 +841,15 @@
         <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2">
@@ -892,15 +862,15 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2">
@@ -913,15 +883,15 @@
         <f t="shared" si="0"/>
         <v>17.8</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
@@ -934,15 +904,15 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2">
@@ -955,15 +925,15 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2">
@@ -976,12 +946,12 @@
         <f t="shared" si="0"/>
         <v>8.9</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="5">
@@ -990,7 +960,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="3">
@@ -999,7 +969,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="5">
@@ -1008,7 +978,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="2">
@@ -1017,7 +987,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="2">
@@ -1030,10 +1000,10 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F17">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1051,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1031,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13">
+      <c r="A1" s="12">
         <f ca="1">TODAY()</f>
         <v>44124</v>
       </c>
@@ -1070,9 +1040,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <f ca="1">NOW()</f>
-        <v>44124.835966550927</v>
+        <v>44124.914827083332</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -1089,7 +1059,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <f ca="1">TODAY()</f>
         <v>44124</v>
       </c>
@@ -1098,7 +1068,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>35029</v>
       </c>
       <c r="B6" t="s">
